--- a/Fase_01/prediccion_2023-06-04.xlsx
+++ b/Fase_01/prediccion_2023-06-04.xlsx
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="3">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="10">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="12">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="15">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="17">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="18">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="21">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="23">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="25">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="27">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="29">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="30">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="32">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>53.69022428842889</v>
+        <v>53.69022428842887</v>
       </c>
     </row>
     <row r="35">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="36">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="38">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="44">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="47">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="48">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="51">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="52">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="53">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="55">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="56">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="57">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="59">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="62">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="66">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="68">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="70">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="75">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="77">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="78">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>24.54150723236106</v>
+        <v>24.54150723236101</v>
       </c>
     </row>
     <row r="80">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="81">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="82">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>99.4989853133409</v>
+        <v>99.49898531334087</v>
       </c>
     </row>
     <row r="86">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="89">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="93">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="96">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="108">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>53.69022428842889</v>
+        <v>53.69022428842887</v>
       </c>
     </row>
     <row r="110">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="115">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="116">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="117">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="119">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="123">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="126">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="128">
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="134">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>41.20155120120522</v>
+        <v>41.20155120120519</v>
       </c>
     </row>
     <row r="137">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="138">
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>24.54150723236106</v>
+        <v>24.54150723236101</v>
       </c>
     </row>
     <row r="140">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>-8.778580705327258</v>
+        <v>-8.778580705327286</v>
       </c>
     </row>
     <row r="141">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="142">
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="143">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>157.7964194254765</v>
+        <v>157.7964194254766</v>
       </c>
     </row>
     <row r="146">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>49.51885340680842</v>
+        <v>49.51885340680839</v>
       </c>
     </row>
     <row r="147">
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20.37013635074058</v>
+        <v>20.37013635074055</v>
       </c>
     </row>
     <row r="150">
